--- a/roles.xlsx
+++ b/roles.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="470">
   <si>
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data = </t>
+    <t>exports.data =</t>
   </si>
   <si>
     <t>#path</t>
@@ -541,9 +541,6 @@
     <t>Boss山贼头目</t>
   </si>
   <si>
-    <t>enemy-robber2.ccbi</t>
-  </si>
-  <si>
     <t>Boss流浪剑士</t>
   </si>
   <si>
@@ -703,9 +700,6 @@
     <t>Boss山贼头目2</t>
   </si>
   <si>
-    <t>enemy-robber22.ccbi</t>
-  </si>
-  <si>
     <t>Boss流浪剑士2</t>
   </si>
   <si>
@@ -865,9 +859,6 @@
     <t>Boss山贼头目3</t>
   </si>
   <si>
-    <t>enemy-robber23.ccbi</t>
-  </si>
-  <si>
     <t>Boss流浪剑士3</t>
   </si>
   <si>
@@ -1025,9 +1016,6 @@
   </si>
   <si>
     <t>Boss山贼头目4</t>
-  </si>
-  <si>
-    <t>enemy-robber24.ccbi</t>
   </si>
   <si>
     <t>Boss流浪剑士4</t>
@@ -1442,12 +1430,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="000"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1473,10 +1468,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1489,7 +1484,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1534,10 +1529,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="MS P????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1569,10 +1564,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="MS P????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1775,13 +1770,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AF152" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AR149" sqref="AR149"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -2111,7 +2111,7 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -2227,7 +2227,7 @@
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -2343,7 +2343,7 @@
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -2469,7 +2469,7 @@
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>4</v>
@@ -2597,7 +2597,7 @@
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>5</v>
@@ -2725,7 +2725,7 @@
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>6</v>
@@ -2826,9 +2826,7 @@
         <v>107</v>
       </c>
       <c r="AP9" s="1"/>
-      <c r="AQ9" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
@@ -2855,7 +2853,7 @@
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>7</v>
@@ -2983,7 +2981,7 @@
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>8</v>
@@ -3082,9 +3080,7 @@
       </c>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-      <c r="AQ11" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ11" s="1"/>
       <c r="AR11" s="1">
         <v>28</v>
       </c>
@@ -3115,7 +3111,7 @@
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>9</v>
@@ -3241,7 +3237,7 @@
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>10</v>
@@ -3367,7 +3363,7 @@
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>11</v>
@@ -3497,7 +3493,7 @@
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>12</v>
@@ -3598,9 +3594,7 @@
       <c r="AP15" s="1">
         <v>66001</v>
       </c>
-      <c r="AQ15" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
@@ -3627,7 +3621,7 @@
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>13</v>
@@ -3650,7 +3644,7 @@
         <v>0.3</v>
       </c>
       <c r="J16" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K16" s="1">
         <v>20</v>
@@ -3755,7 +3749,7 @@
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
     </row>
-    <row r="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>14</v>
@@ -3883,7 +3877,7 @@
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
     </row>
-    <row r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>15</v>
@@ -4011,7 +4005,7 @@
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>16</v>
@@ -4139,7 +4133,7 @@
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>17</v>
@@ -4267,7 +4261,7 @@
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>18</v>
@@ -4387,7 +4381,7 @@
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
     </row>
-    <row r="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>19</v>
@@ -4515,7 +4509,7 @@
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
     </row>
-    <row r="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>20</v>
@@ -4643,7 +4637,7 @@
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
     </row>
-    <row r="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>21</v>
@@ -4773,7 +4767,7 @@
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
     </row>
-    <row r="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>22</v>
@@ -4901,7 +4895,7 @@
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
     </row>
-    <row r="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>23</v>
@@ -5002,7 +4996,9 @@
         <v>169</v>
       </c>
       <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
+      <c r="AQ26" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
@@ -5029,7 +5025,7 @@
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
     </row>
-    <row r="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>24</v>
@@ -5157,7 +5153,7 @@
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
     </row>
-    <row r="28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>25</v>
@@ -5256,7 +5252,9 @@
       </c>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
+      <c r="AQ28" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR28" s="1">
         <v>28</v>
       </c>
@@ -5287,7 +5285,7 @@
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
     </row>
-    <row r="29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>26</v>
@@ -5415,7 +5413,7 @@
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
     </row>
-    <row r="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>27</v>
@@ -5543,7 +5541,7 @@
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
     </row>
-    <row r="31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>28</v>
@@ -5558,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -5642,7 +5640,9 @@
       </c>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
+      <c r="AQ31" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR31" s="1">
         <v>48</v>
       </c>
@@ -5673,13 +5673,13 @@
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
     </row>
-    <row r="32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>82</v>
@@ -5772,7 +5772,9 @@
         <v>141</v>
       </c>
       <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
+      <c r="AQ32" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
@@ -5799,13 +5801,13 @@
       <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
     </row>
-    <row r="33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>82</v>
@@ -5927,13 +5929,13 @@
       <c r="BO33" s="1"/>
       <c r="BP33" s="1"/>
     </row>
-    <row r="34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>82</v>
@@ -6055,13 +6057,13 @@
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
     </row>
-    <row r="35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>82</v>
@@ -6153,7 +6155,7 @@
         <v>31</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1">
@@ -6185,13 +6187,13 @@
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
     </row>
-    <row r="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>82</v>
@@ -6315,13 +6317,13 @@
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
     </row>
-    <row r="37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>82</v>
@@ -6443,13 +6445,13 @@
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
     </row>
-    <row r="38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>82</v>
@@ -6458,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -6569,13 +6571,13 @@
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
     </row>
-    <row r="39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>82</v>
@@ -6584,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -6699,13 +6701,13 @@
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
     </row>
-    <row r="40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>82</v>
@@ -6714,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -6827,13 +6829,13 @@
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
     </row>
-    <row r="41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>82</v>
@@ -6842,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -6925,12 +6927,10 @@
         <v>9</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP41" s="1"/>
-      <c r="AQ41" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
@@ -6957,13 +6957,13 @@
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
     </row>
-    <row r="42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>82</v>
@@ -6972,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -7083,13 +7083,13 @@
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
     </row>
-    <row r="43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>82</v>
@@ -7098,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7184,9 +7184,7 @@
       <c r="AP43" s="1">
         <v>61001</v>
       </c>
-      <c r="AQ43" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ43" s="1"/>
       <c r="AR43" s="1">
         <v>28</v>
       </c>
@@ -7217,13 +7215,13 @@
       <c r="BO43" s="1"/>
       <c r="BP43" s="1"/>
     </row>
-    <row r="44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>82</v>
@@ -7232,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -7343,13 +7341,13 @@
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
     </row>
-    <row r="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>82</v>
@@ -7358,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -7469,13 +7467,13 @@
       <c r="BO45" s="1"/>
       <c r="BP45" s="1"/>
     </row>
-    <row r="46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>82</v>
@@ -7484,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -7599,13 +7597,13 @@
       <c r="BO46" s="1"/>
       <c r="BP46" s="1"/>
     </row>
-    <row r="47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>82</v>
@@ -7614,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -7698,9 +7696,7 @@
         <v>141</v>
       </c>
       <c r="AP47" s="1"/>
-      <c r="AQ47" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1"/>
@@ -7727,13 +7723,13 @@
       <c r="BO47" s="1"/>
       <c r="BP47" s="1"/>
     </row>
-    <row r="48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
@@ -7742,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -7750,7 +7746,7 @@
         <v>0.3</v>
       </c>
       <c r="J48" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K48" s="1">
         <v>20</v>
@@ -7855,13 +7851,13 @@
       <c r="BO48" s="1"/>
       <c r="BP48" s="1"/>
     </row>
-    <row r="49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>82</v>
@@ -7870,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -7981,13 +7977,13 @@
       <c r="BO49" s="1"/>
       <c r="BP49" s="1"/>
     </row>
-    <row r="50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>82</v>
@@ -7996,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -8079,7 +8075,7 @@
         <v>31</v>
       </c>
       <c r="AO50" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP50" s="1"/>
       <c r="AQ50" s="1"/>
@@ -8109,13 +8105,13 @@
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
     </row>
-    <row r="51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>82</v>
@@ -8124,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -8237,13 +8233,13 @@
       <c r="BO51" s="1"/>
       <c r="BP51" s="1"/>
     </row>
-    <row r="52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>82</v>
@@ -8252,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -8363,13 +8359,13 @@
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
     </row>
-    <row r="53" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>82</v>
@@ -8378,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -8483,13 +8479,13 @@
       <c r="BO53" s="1"/>
       <c r="BP53" s="1"/>
     </row>
-    <row r="54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>82</v>
@@ -8498,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -8611,13 +8607,13 @@
       <c r="BO54" s="1"/>
       <c r="BP54" s="1"/>
     </row>
-    <row r="55" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>52</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>82</v>
@@ -8626,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -8739,13 +8735,13 @@
       <c r="BO55" s="1"/>
       <c r="BP55" s="1"/>
     </row>
-    <row r="56" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>82</v>
@@ -8754,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -8869,13 +8865,13 @@
       <c r="BO56" s="1"/>
       <c r="BP56" s="1"/>
     </row>
-    <row r="57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>82</v>
@@ -8884,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -8997,13 +8993,13 @@
       <c r="BO57" s="1"/>
       <c r="BP57" s="1"/>
     </row>
-    <row r="58" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>82</v>
@@ -9012,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -9095,10 +9091,12 @@
         <v>9</v>
       </c>
       <c r="AO58" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
+      <c r="AQ58" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1"/>
@@ -9125,13 +9123,13 @@
       <c r="BO58" s="1"/>
       <c r="BP58" s="1"/>
     </row>
-    <row r="59" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>82</v>
@@ -9140,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -9253,13 +9251,13 @@
       <c r="BO59" s="1"/>
       <c r="BP59" s="1"/>
     </row>
-    <row r="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>82</v>
@@ -9268,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -9352,7 +9350,9 @@
       </c>
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
-      <c r="AQ60" s="1"/>
+      <c r="AQ60" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR60" s="1">
         <v>28</v>
       </c>
@@ -9383,13 +9383,13 @@
       <c r="BO60" s="1"/>
       <c r="BP60" s="1"/>
     </row>
-    <row r="61" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>58</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>82</v>
@@ -9398,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -9511,13 +9511,13 @@
       <c r="BO61" s="1"/>
       <c r="BP61" s="1"/>
     </row>
-    <row r="62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>82</v>
@@ -9526,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -9639,13 +9639,13 @@
       <c r="BO62" s="1"/>
       <c r="BP62" s="1"/>
     </row>
-    <row r="63" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>82</v>
@@ -9654,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -9738,7 +9738,9 @@
       </c>
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
+      <c r="AQ63" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR63" s="1">
         <v>48</v>
       </c>
@@ -9769,13 +9771,13 @@
       <c r="BO63" s="1"/>
       <c r="BP63" s="1"/>
     </row>
-    <row r="64" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>82</v>
@@ -9784,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -9868,7 +9870,9 @@
         <v>141</v>
       </c>
       <c r="AP64" s="1"/>
-      <c r="AQ64" s="1"/>
+      <c r="AQ64" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1"/>
@@ -9895,13 +9899,13 @@
       <c r="BO64" s="1"/>
       <c r="BP64" s="1"/>
     </row>
-    <row r="65" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>82</v>
@@ -9910,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -10023,13 +10027,13 @@
       <c r="BO65" s="1"/>
       <c r="BP65" s="1"/>
     </row>
-    <row r="66" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>82</v>
@@ -10038,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -10151,13 +10155,13 @@
       <c r="BO66" s="1"/>
       <c r="BP66" s="1"/>
     </row>
-    <row r="67" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>64</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>82</v>
@@ -10166,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -10249,7 +10253,7 @@
         <v>31</v>
       </c>
       <c r="AO67" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AP67" s="1"/>
       <c r="AQ67" s="1">
@@ -10281,13 +10285,13 @@
       <c r="BO67" s="1"/>
       <c r="BP67" s="1"/>
     </row>
-    <row r="68" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <v>65</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>82</v>
@@ -10296,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -10411,13 +10415,13 @@
       <c r="BO68" s="1"/>
       <c r="BP68" s="1"/>
     </row>
-    <row r="69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>66</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>82</v>
@@ -10426,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -10539,13 +10543,13 @@
       <c r="BO69" s="1"/>
       <c r="BP69" s="1"/>
     </row>
-    <row r="70" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>82</v>
@@ -10554,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -10665,13 +10669,13 @@
       <c r="BO70" s="1"/>
       <c r="BP70" s="1"/>
     </row>
-    <row r="71" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>82</v>
@@ -10680,7 +10684,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -10795,13 +10799,13 @@
       <c r="BO71" s="1"/>
       <c r="BP71" s="1"/>
     </row>
-    <row r="72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
         <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>82</v>
@@ -10810,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -10921,13 +10925,13 @@
       <c r="BO72" s="1"/>
       <c r="BP72" s="1"/>
     </row>
-    <row r="73" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>82</v>
@@ -10936,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -11019,12 +11023,10 @@
         <v>9</v>
       </c>
       <c r="AO73" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AP73" s="1"/>
-      <c r="AQ73" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
       <c r="AT73" s="1"/>
@@ -11051,13 +11053,13 @@
       <c r="BO73" s="1"/>
       <c r="BP73" s="1"/>
     </row>
-    <row r="74" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>71</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>82</v>
@@ -11066,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -11179,13 +11181,13 @@
       <c r="BO74" s="1"/>
       <c r="BP74" s="1"/>
     </row>
-    <row r="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>82</v>
@@ -11194,7 +11196,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -11278,9 +11280,7 @@
       </c>
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
-      <c r="AQ75" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ75" s="1"/>
       <c r="AR75" s="1">
         <v>28</v>
       </c>
@@ -11311,13 +11311,13 @@
       <c r="BO75" s="1"/>
       <c r="BP75" s="1"/>
     </row>
-    <row r="76" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
         <v>73</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>82</v>
@@ -11326,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -11437,13 +11437,13 @@
       <c r="BO76" s="1"/>
       <c r="BP76" s="1"/>
     </row>
-    <row r="77" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>82</v>
@@ -11452,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -11563,13 +11563,13 @@
       <c r="BO77" s="1"/>
       <c r="BP77" s="1"/>
     </row>
-    <row r="78" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
         <v>75</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>82</v>
@@ -11578,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -11693,13 +11693,13 @@
       <c r="BO78" s="1"/>
       <c r="BP78" s="1"/>
     </row>
-    <row r="79" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>82</v>
@@ -11708,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -11792,9 +11792,7 @@
         <v>141</v>
       </c>
       <c r="AP79" s="1"/>
-      <c r="AQ79" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ79" s="1"/>
       <c r="AR79" s="1"/>
       <c r="AS79" s="1"/>
       <c r="AT79" s="1"/>
@@ -11821,13 +11819,13 @@
       <c r="BO79" s="1"/>
       <c r="BP79" s="1"/>
     </row>
-    <row r="80" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>82</v>
@@ -11836,7 +11834,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -11844,7 +11842,7 @@
         <v>0.3</v>
       </c>
       <c r="J80" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K80" s="1">
         <v>20</v>
@@ -11947,13 +11945,13 @@
       <c r="BO80" s="1"/>
       <c r="BP80" s="1"/>
     </row>
-    <row r="81" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>82</v>
@@ -11962,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -12075,13 +12073,13 @@
       <c r="BO81" s="1"/>
       <c r="BP81" s="1"/>
     </row>
-    <row r="82" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
         <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>82</v>
@@ -12090,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -12173,7 +12171,7 @@
         <v>31</v>
       </c>
       <c r="AO82" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>
@@ -12203,13 +12201,13 @@
       <c r="BO82" s="1"/>
       <c r="BP82" s="1"/>
     </row>
-    <row r="83" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
         <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>82</v>
@@ -12218,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -12331,13 +12329,13 @@
       <c r="BO83" s="1"/>
       <c r="BP83" s="1"/>
     </row>
-    <row r="84" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
         <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>82</v>
@@ -12346,7 +12344,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -12457,13 +12455,13 @@
       <c r="BO84" s="1"/>
       <c r="BP84" s="1"/>
     </row>
-    <row r="85" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
         <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>82</v>
@@ -12472,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -12575,13 +12573,13 @@
       <c r="BO85" s="1"/>
       <c r="BP85" s="1"/>
     </row>
-    <row r="86" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
         <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>82</v>
@@ -12590,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -12703,13 +12701,13 @@
       <c r="BO86" s="1"/>
       <c r="BP86" s="1"/>
     </row>
-    <row r="87" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
         <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>82</v>
@@ -12718,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -12831,13 +12829,13 @@
       <c r="BO87" s="1"/>
       <c r="BP87" s="1"/>
     </row>
-    <row r="88" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
         <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>82</v>
@@ -12846,7 +12844,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -12961,13 +12959,13 @@
       <c r="BO88" s="1"/>
       <c r="BP88" s="1"/>
     </row>
-    <row r="89" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
         <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>82</v>
@@ -12976,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -13089,13 +13087,13 @@
       <c r="BO89" s="1"/>
       <c r="BP89" s="1"/>
     </row>
-    <row r="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
         <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>82</v>
@@ -13104,7 +13102,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -13187,10 +13185,12 @@
         <v>9</v>
       </c>
       <c r="AO90" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
+      <c r="AQ90" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR90" s="1"/>
       <c r="AS90" s="1"/>
       <c r="AT90" s="1"/>
@@ -13217,13 +13217,13 @@
       <c r="BO90" s="1"/>
       <c r="BP90" s="1"/>
     </row>
-    <row r="91" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
         <v>88</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>82</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -13345,13 +13345,13 @@
       <c r="BO91" s="1"/>
       <c r="BP91" s="1"/>
     </row>
-    <row r="92" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
         <v>89</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>82</v>
@@ -13360,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -13444,7 +13444,9 @@
       </c>
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
-      <c r="AQ92" s="1"/>
+      <c r="AQ92" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR92" s="1">
         <v>28</v>
       </c>
@@ -13475,13 +13477,13 @@
       <c r="BO92" s="1"/>
       <c r="BP92" s="1"/>
     </row>
-    <row r="93" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
         <v>90</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>82</v>
@@ -13490,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -13603,13 +13605,13 @@
       <c r="BO93" s="1"/>
       <c r="BP93" s="1"/>
     </row>
-    <row r="94" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
         <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>82</v>
@@ -13618,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -13731,13 +13733,13 @@
       <c r="BO94" s="1"/>
       <c r="BP94" s="1"/>
     </row>
-    <row r="95" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
         <v>92</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>82</v>
@@ -13746,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -13830,7 +13832,9 @@
       </c>
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
-      <c r="AQ95" s="1"/>
+      <c r="AQ95" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR95" s="1">
         <v>48</v>
       </c>
@@ -13861,13 +13865,13 @@
       <c r="BO95" s="1"/>
       <c r="BP95" s="1"/>
     </row>
-    <row r="96" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
         <v>93</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>82</v>
@@ -13876,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -13960,7 +13964,9 @@
         <v>141</v>
       </c>
       <c r="AP96" s="1"/>
-      <c r="AQ96" s="1"/>
+      <c r="AQ96" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR96" s="1"/>
       <c r="AS96" s="1"/>
       <c r="AT96" s="1"/>
@@ -13987,13 +13993,13 @@
       <c r="BO96" s="1"/>
       <c r="BP96" s="1"/>
     </row>
-    <row r="97" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
         <v>94</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>82</v>
@@ -14002,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -14115,13 +14121,13 @@
       <c r="BO97" s="1"/>
       <c r="BP97" s="1"/>
     </row>
-    <row r="98" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1">
         <v>95</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>82</v>
@@ -14130,7 +14136,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -14243,13 +14249,13 @@
       <c r="BO98" s="1"/>
       <c r="BP98" s="1"/>
     </row>
-    <row r="99" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
         <v>96</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>82</v>
@@ -14258,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -14341,7 +14347,7 @@
         <v>31</v>
       </c>
       <c r="AO99" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AP99" s="1"/>
       <c r="AQ99" s="1">
@@ -14373,13 +14379,13 @@
       <c r="BO99" s="1"/>
       <c r="BP99" s="1"/>
     </row>
-    <row r="100" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1">
         <v>97</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>82</v>
@@ -14388,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -14503,13 +14509,13 @@
       <c r="BO100" s="1"/>
       <c r="BP100" s="1"/>
     </row>
-    <row r="101" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
         <v>98</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>82</v>
@@ -14518,7 +14524,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -14631,13 +14637,13 @@
       <c r="BO101" s="1"/>
       <c r="BP101" s="1"/>
     </row>
-    <row r="102" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
         <v>99</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>82</v>
@@ -14646,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -14757,13 +14763,13 @@
       <c r="BO102" s="1"/>
       <c r="BP102" s="1"/>
     </row>
-    <row r="103" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
         <v>100</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>82</v>
@@ -14772,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -14885,13 +14891,13 @@
       <c r="BO103" s="1"/>
       <c r="BP103" s="1"/>
     </row>
-    <row r="104" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1">
         <v>101</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>82</v>
@@ -14900,7 +14906,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -15011,13 +15017,13 @@
       <c r="BO104" s="1"/>
       <c r="BP104" s="1"/>
     </row>
-    <row r="105" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
         <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>82</v>
@@ -15026,7 +15032,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -15109,14 +15115,12 @@
         <v>9</v>
       </c>
       <c r="AO105" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AP105" s="1">
         <v>105001</v>
       </c>
-      <c r="AQ105" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ105" s="1"/>
       <c r="AR105" s="1"/>
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
@@ -15143,13 +15147,13 @@
       <c r="BO105" s="1"/>
       <c r="BP105" s="1"/>
     </row>
-    <row r="106" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1">
         <v>103</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>82</v>
@@ -15158,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -15269,13 +15273,13 @@
       <c r="BO106" s="1"/>
       <c r="BP106" s="1"/>
     </row>
-    <row r="107" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
         <v>104</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>82</v>
@@ -15284,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -15370,9 +15374,7 @@
       <c r="AP107" s="1">
         <v>114001</v>
       </c>
-      <c r="AQ107" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ107" s="1"/>
       <c r="AR107" s="1">
         <v>28</v>
       </c>
@@ -15403,13 +15405,13 @@
       <c r="BO107" s="1"/>
       <c r="BP107" s="1"/>
     </row>
-    <row r="108" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1">
         <v>105</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>82</v>
@@ -15418,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -15529,13 +15531,13 @@
       <c r="BO108" s="1"/>
       <c r="BP108" s="1"/>
     </row>
-    <row r="109" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1">
         <v>106</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>82</v>
@@ -15544,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -15655,13 +15657,13 @@
       <c r="BO109" s="1"/>
       <c r="BP109" s="1"/>
     </row>
-    <row r="110" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1">
         <v>107</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>82</v>
@@ -15670,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -15785,13 +15787,13 @@
       <c r="BO110" s="1"/>
       <c r="BP110" s="1"/>
     </row>
-    <row r="111" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
         <v>108</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>82</v>
@@ -15800,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -15884,9 +15886,7 @@
         <v>141</v>
       </c>
       <c r="AP111" s="1"/>
-      <c r="AQ111" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AQ111" s="1"/>
       <c r="AR111" s="1"/>
       <c r="AS111" s="1"/>
       <c r="AT111" s="1"/>
@@ -15913,13 +15913,13 @@
       <c r="BO111" s="1"/>
       <c r="BP111" s="1"/>
     </row>
-    <row r="112" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1">
         <v>109</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>82</v>
@@ -15928,7 +15928,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -15936,7 +15936,7 @@
         <v>0.3</v>
       </c>
       <c r="J112" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K112" s="1">
         <v>20</v>
@@ -16039,13 +16039,13 @@
       <c r="BO112" s="1"/>
       <c r="BP112" s="1"/>
     </row>
-    <row r="113" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1">
         <v>110</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>82</v>
@@ -16054,7 +16054,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -16165,13 +16165,13 @@
       <c r="BO113" s="1"/>
       <c r="BP113" s="1"/>
     </row>
-    <row r="114" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1">
         <v>111</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>82</v>
@@ -16180,7 +16180,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -16263,7 +16263,7 @@
         <v>31</v>
       </c>
       <c r="AO114" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AP114" s="1">
         <v>126001</v>
@@ -16295,13 +16295,13 @@
       <c r="BO114" s="1"/>
       <c r="BP114" s="1"/>
     </row>
-    <row r="115" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
         <v>112</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>82</v>
@@ -16310,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -16423,13 +16423,13 @@
       <c r="BO115" s="1"/>
       <c r="BP115" s="1"/>
     </row>
-    <row r="116" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1">
         <v>113</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>82</v>
@@ -16438,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -16549,13 +16549,13 @@
       <c r="BO116" s="1"/>
       <c r="BP116" s="1"/>
     </row>
-    <row r="117" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1">
         <v>114</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>82</v>
@@ -16564,7 +16564,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -16667,13 +16667,13 @@
       <c r="BO117" s="1"/>
       <c r="BP117" s="1"/>
     </row>
-    <row r="118" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1">
         <v>115</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>82</v>
@@ -16682,7 +16682,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -16795,13 +16795,13 @@
       <c r="BO118" s="1"/>
       <c r="BP118" s="1"/>
     </row>
-    <row r="119" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1">
         <v>116</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>82</v>
@@ -16810,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -16923,13 +16923,13 @@
       <c r="BO119" s="1"/>
       <c r="BP119" s="1"/>
     </row>
-    <row r="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1">
         <v>117</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>82</v>
@@ -16938,7 +16938,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -17053,13 +17053,13 @@
       <c r="BO120" s="1"/>
       <c r="BP120" s="1"/>
     </row>
-    <row r="121" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1">
         <v>118</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>82</v>
@@ -17068,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -17181,13 +17181,13 @@
       <c r="BO121" s="1"/>
       <c r="BP121" s="1"/>
     </row>
-    <row r="122" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1">
         <v>119</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>82</v>
@@ -17196,7 +17196,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -17279,10 +17279,12 @@
         <v>9</v>
       </c>
       <c r="AO122" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AP122" s="1"/>
-      <c r="AQ122" s="1"/>
+      <c r="AQ122" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR122" s="1"/>
       <c r="AS122" s="1"/>
       <c r="AT122" s="1"/>
@@ -17309,13 +17311,13 @@
       <c r="BO122" s="1"/>
       <c r="BP122" s="1"/>
     </row>
-    <row r="123" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1">
         <v>120</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>82</v>
@@ -17324,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -17437,13 +17439,13 @@
       <c r="BO123" s="1"/>
       <c r="BP123" s="1"/>
     </row>
-    <row r="124" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
         <v>121</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>82</v>
@@ -17452,7 +17454,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -17536,7 +17538,9 @@
       </c>
       <c r="AO124" s="1"/>
       <c r="AP124" s="1"/>
-      <c r="AQ124" s="1"/>
+      <c r="AQ124" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR124" s="1">
         <v>28</v>
       </c>
@@ -17567,13 +17571,13 @@
       <c r="BO124" s="1"/>
       <c r="BP124" s="1"/>
     </row>
-    <row r="125" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1">
         <v>122</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>82</v>
@@ -17582,7 +17586,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -17695,13 +17699,13 @@
       <c r="BO125" s="1"/>
       <c r="BP125" s="1"/>
     </row>
-    <row r="126" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1">
         <v>123</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>82</v>
@@ -17710,7 +17714,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -17823,13 +17827,13 @@
       <c r="BO126" s="1"/>
       <c r="BP126" s="1"/>
     </row>
-    <row r="127" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
         <v>124</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>82</v>
@@ -17838,7 +17842,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -17922,7 +17926,9 @@
       </c>
       <c r="AO127" s="1"/>
       <c r="AP127" s="1"/>
-      <c r="AQ127" s="1"/>
+      <c r="AQ127" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR127" s="1">
         <v>48</v>
       </c>
@@ -17953,13 +17959,13 @@
       <c r="BO127" s="1"/>
       <c r="BP127" s="1"/>
     </row>
-    <row r="128" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1">
         <v>125</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>82</v>
@@ -17968,7 +17974,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -18052,7 +18058,9 @@
         <v>141</v>
       </c>
       <c r="AP128" s="1"/>
-      <c r="AQ128" s="1"/>
+      <c r="AQ128" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR128" s="1"/>
       <c r="AS128" s="1"/>
       <c r="AT128" s="1"/>
@@ -18079,13 +18087,13 @@
       <c r="BO128" s="1"/>
       <c r="BP128" s="1"/>
     </row>
-    <row r="129" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
         <v>126</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>82</v>
@@ -18094,7 +18102,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -18207,13 +18215,13 @@
       <c r="BO129" s="1"/>
       <c r="BP129" s="1"/>
     </row>
-    <row r="130" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1">
         <v>127</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>82</v>
@@ -18222,7 +18230,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -18335,13 +18343,13 @@
       <c r="BO130" s="1"/>
       <c r="BP130" s="1"/>
     </row>
-    <row r="131" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1">
         <v>128</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>82</v>
@@ -18350,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -18433,7 +18441,7 @@
         <v>31</v>
       </c>
       <c r="AO131" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AP131" s="1"/>
       <c r="AQ131" s="1">
@@ -18465,13 +18473,13 @@
       <c r="BO131" s="1"/>
       <c r="BP131" s="1"/>
     </row>
-    <row r="132" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1">
         <v>129</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>82</v>
@@ -18480,7 +18488,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -18595,13 +18603,13 @@
       <c r="BO132" s="1"/>
       <c r="BP132" s="1"/>
     </row>
-    <row r="133" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1">
         <v>130</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>82</v>
@@ -18610,7 +18618,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -18723,13 +18731,13 @@
       <c r="BO133" s="1"/>
       <c r="BP133" s="1"/>
     </row>
-    <row r="134" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1">
         <v>131</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>71</v>
@@ -18813,7 +18821,7 @@
       </c>
       <c r="AT134" s="1"/>
       <c r="AU134" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AV134" s="1">
         <v>547</v>
@@ -18845,13 +18853,13 @@
       <c r="BO134" s="1"/>
       <c r="BP134" s="1"/>
     </row>
-    <row r="135" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1">
         <v>132</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>71</v>
@@ -18935,7 +18943,7 @@
       </c>
       <c r="AT135" s="1"/>
       <c r="AU135" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AV135" s="1">
         <v>382</v>
@@ -18965,7 +18973,7 @@
       <c r="BO135" s="1"/>
       <c r="BP135" s="1"/>
     </row>
-    <row r="136" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -19021,7 +19029,7 @@
         <v>133</v>
       </c>
       <c r="BA136" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="BB136" s="1" t="s">
         <v>82</v>
@@ -19033,19 +19041,19 @@
         <v>1</v>
       </c>
       <c r="BE136" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF136" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG136" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BH136" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="BI136" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="BF136" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="BG136" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="BH136" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BI136" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="BJ136" s="1"/>
       <c r="BK136" s="1"/>
@@ -19055,13 +19063,13 @@
       <c r="BO136" s="1"/>
       <c r="BP136" s="1"/>
     </row>
-    <row r="137" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
         <v>134</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>82</v>
@@ -19143,7 +19151,7 @@
       <c r="AM137" s="1"/>
       <c r="AN137" s="1"/>
       <c r="AO137" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
@@ -19173,13 +19181,13 @@
       <c r="BO137" s="1"/>
       <c r="BP137" s="1"/>
     </row>
-    <row r="138" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1">
         <v>135</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>82</v>
@@ -19188,7 +19196,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -19270,7 +19278,9 @@
       </c>
       <c r="AO138" s="1"/>
       <c r="AP138" s="1"/>
-      <c r="AQ138" s="1"/>
+      <c r="AQ138" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR138" s="1">
         <v>55</v>
       </c>
@@ -19303,13 +19313,13 @@
       <c r="BO138" s="1"/>
       <c r="BP138" s="1"/>
     </row>
-    <row r="139" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1">
         <v>136</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>82</v>
@@ -19318,7 +19328,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -19402,7 +19412,9 @@
       </c>
       <c r="AO139" s="1"/>
       <c r="AP139" s="1"/>
-      <c r="AQ139" s="1"/>
+      <c r="AQ139" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR139" s="1">
         <v>57</v>
       </c>
@@ -19435,13 +19447,13 @@
       <c r="BO139" s="1"/>
       <c r="BP139" s="1"/>
     </row>
-    <row r="140" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1">
         <v>137</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>82</v>
@@ -19450,7 +19462,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -19528,7 +19540,9 @@
       <c r="AN140" s="1"/>
       <c r="AO140" s="1"/>
       <c r="AP140" s="1"/>
-      <c r="AQ140" s="1"/>
+      <c r="AQ140" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR140" s="1">
         <v>55</v>
       </c>
@@ -19561,13 +19575,13 @@
       <c r="BO140" s="1"/>
       <c r="BP140" s="1"/>
     </row>
-    <row r="141" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1">
         <v>138</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>82</v>
@@ -19576,7 +19590,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -19652,7 +19666,9 @@
       <c r="AN141" s="1"/>
       <c r="AO141" s="1"/>
       <c r="AP141" s="1"/>
-      <c r="AQ141" s="1"/>
+      <c r="AQ141" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR141" s="1">
         <v>61</v>
       </c>
@@ -19685,13 +19701,13 @@
       <c r="BO141" s="1"/>
       <c r="BP141" s="1"/>
     </row>
-    <row r="142" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1">
         <v>139</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>82</v>
@@ -19700,7 +19716,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -19784,7 +19800,9 @@
       </c>
       <c r="AO142" s="1"/>
       <c r="AP142" s="1"/>
-      <c r="AQ142" s="1"/>
+      <c r="AQ142" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR142" s="1">
         <v>55</v>
       </c>
@@ -19817,13 +19835,13 @@
       <c r="BO142" s="1"/>
       <c r="BP142" s="1"/>
     </row>
-    <row r="143" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1">
         <v>140</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>82</v>
@@ -19832,7 +19850,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -19914,7 +19932,9 @@
       </c>
       <c r="AO143" s="1"/>
       <c r="AP143" s="1"/>
-      <c r="AQ143" s="1"/>
+      <c r="AQ143" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AR143" s="1">
         <v>55</v>
       </c>
@@ -19947,22 +19967,22 @@
       <c r="BO143" s="1"/>
       <c r="BP143" s="1"/>
     </row>
-    <row r="144" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1">
         <v>141</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E144" s="1">
         <v>2</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -20001,7 +20021,7 @@
       <c r="AM144" s="1"/>
       <c r="AN144" s="1"/>
       <c r="AO144" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
@@ -20031,22 +20051,22 @@
       <c r="BO144" s="1"/>
       <c r="BP144" s="1"/>
     </row>
-    <row r="145" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="1">
         <v>142</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E145" s="1">
         <v>2</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -20085,7 +20105,7 @@
       <c r="AM145" s="1"/>
       <c r="AN145" s="1"/>
       <c r="AO145" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
@@ -20115,22 +20135,22 @@
       <c r="BO145" s="1"/>
       <c r="BP145" s="1"/>
     </row>
-    <row r="146" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="1">
         <v>143</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -20169,7 +20189,7 @@
       <c r="AM146" s="1"/>
       <c r="AN146" s="1"/>
       <c r="AO146" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
@@ -20199,22 +20219,22 @@
       <c r="BO146" s="1"/>
       <c r="BP146" s="1"/>
     </row>
-    <row r="147" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="1">
         <v>144</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E147" s="1">
         <v>2</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -20253,7 +20273,7 @@
       <c r="AM147" s="1"/>
       <c r="AN147" s="1"/>
       <c r="AO147" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP147" s="1"/>
       <c r="AQ147" s="1"/>
@@ -20283,22 +20303,22 @@
       <c r="BO147" s="1"/>
       <c r="BP147" s="1"/>
     </row>
-    <row r="148" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="1">
         <v>145</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E148" s="1">
         <v>2</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -20337,7 +20357,7 @@
       <c r="AM148" s="1"/>
       <c r="AN148" s="1"/>
       <c r="AO148" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP148" s="1"/>
       <c r="AQ148" s="1"/>
@@ -20367,22 +20387,22 @@
       <c r="BO148" s="1"/>
       <c r="BP148" s="1"/>
     </row>
-    <row r="149" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="1">
         <v>146</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E149" s="1">
         <v>2</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -20421,7 +20441,7 @@
       <c r="AM149" s="1"/>
       <c r="AN149" s="1"/>
       <c r="AO149" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP149" s="1"/>
       <c r="AQ149" s="1"/>
@@ -20451,22 +20471,22 @@
       <c r="BO149" s="1"/>
       <c r="BP149" s="1"/>
     </row>
-    <row r="150" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="1">
         <v>147</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E150" s="1">
         <v>2</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -20505,7 +20525,7 @@
       <c r="AM150" s="1"/>
       <c r="AN150" s="1"/>
       <c r="AO150" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP150" s="1"/>
       <c r="AQ150" s="1"/>
@@ -20535,13 +20555,13 @@
       <c r="BO150" s="1"/>
       <c r="BP150" s="1"/>
     </row>
-    <row r="151" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="1">
         <v>148</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>82</v>
@@ -20550,7 +20570,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -20623,7 +20643,7 @@
       <c r="AM151" s="1"/>
       <c r="AN151" s="1"/>
       <c r="AO151" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AP151" s="1"/>
       <c r="AQ151" s="1"/>
@@ -20657,22 +20677,22 @@
       <c r="BO151" s="1"/>
       <c r="BP151" s="1"/>
     </row>
-    <row r="152" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="1">
         <v>149</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E152" s="1">
         <v>2</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -20775,22 +20795,22 @@
       <c r="BO152" s="1"/>
       <c r="BP152" s="1"/>
     </row>
-    <row r="153" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="1">
         <v>150</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E153" s="1">
         <v>2</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -20829,7 +20849,7 @@
       <c r="AM153" s="1"/>
       <c r="AN153" s="1"/>
       <c r="AO153" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP153" s="1"/>
       <c r="AQ153" s="1"/>
@@ -20859,22 +20879,22 @@
       <c r="BO153" s="1"/>
       <c r="BP153" s="1"/>
     </row>
-    <row r="154" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="1">
         <v>151</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E154" s="1">
         <v>2</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -20913,7 +20933,7 @@
       <c r="AM154" s="1"/>
       <c r="AN154" s="1"/>
       <c r="AO154" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP154" s="1"/>
       <c r="AQ154" s="1"/>
@@ -20943,22 +20963,22 @@
       <c r="BO154" s="1"/>
       <c r="BP154" s="1"/>
     </row>
-    <row r="155" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="1">
         <v>152</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E155" s="1">
         <v>2</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -20997,7 +21017,7 @@
       <c r="AM155" s="1"/>
       <c r="AN155" s="1"/>
       <c r="AO155" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
@@ -21027,22 +21047,22 @@
       <c r="BO155" s="1"/>
       <c r="BP155" s="1"/>
     </row>
-    <row r="156" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="1">
         <v>153</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E156" s="1">
         <v>2</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -21081,7 +21101,7 @@
       <c r="AM156" s="1"/>
       <c r="AN156" s="1"/>
       <c r="AO156" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP156" s="1"/>
       <c r="AQ156" s="1"/>
@@ -21111,22 +21131,22 @@
       <c r="BO156" s="1"/>
       <c r="BP156" s="1"/>
     </row>
-    <row r="157" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="1">
         <v>154</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E157" s="1">
         <v>2</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -21165,7 +21185,7 @@
       <c r="AM157" s="1"/>
       <c r="AN157" s="1"/>
       <c r="AO157" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
@@ -21195,22 +21215,22 @@
       <c r="BO157" s="1"/>
       <c r="BP157" s="1"/>
     </row>
-    <row r="158" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="1">
         <v>155</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E158" s="1">
         <v>2</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -21249,7 +21269,7 @@
       <c r="AM158" s="1"/>
       <c r="AN158" s="1"/>
       <c r="AO158" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP158" s="1"/>
       <c r="AQ158" s="1"/>
@@ -21279,22 +21299,22 @@
       <c r="BO158" s="1"/>
       <c r="BP158" s="1"/>
     </row>
-    <row r="159" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="1">
         <v>156</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E159" s="1">
         <v>2</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -21333,7 +21353,7 @@
       <c r="AM159" s="1"/>
       <c r="AN159" s="1"/>
       <c r="AO159" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP159" s="1"/>
       <c r="AQ159" s="1"/>
@@ -21363,22 +21383,22 @@
       <c r="BO159" s="1"/>
       <c r="BP159" s="1"/>
     </row>
-    <row r="160" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
         <v>157</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E160" s="1">
         <v>2</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -21417,7 +21437,7 @@
       <c r="AM160" s="1"/>
       <c r="AN160" s="1"/>
       <c r="AO160" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP160" s="1"/>
       <c r="AQ160" s="1"/>
@@ -21447,22 +21467,22 @@
       <c r="BO160" s="1"/>
       <c r="BP160" s="1"/>
     </row>
-    <row r="161" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="1">
         <v>158</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E161" s="1">
         <v>2</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -21501,7 +21521,7 @@
       <c r="AM161" s="1"/>
       <c r="AN161" s="1"/>
       <c r="AO161" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP161" s="1"/>
       <c r="AQ161" s="1"/>
@@ -21531,22 +21551,22 @@
       <c r="BO161" s="1"/>
       <c r="BP161" s="1"/>
     </row>
-    <row r="162" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
         <v>159</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E162" s="1">
         <v>2</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -21585,7 +21605,7 @@
       <c r="AM162" s="1"/>
       <c r="AN162" s="1"/>
       <c r="AO162" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP162" s="1"/>
       <c r="AQ162" s="1"/>
@@ -21615,22 +21635,22 @@
       <c r="BO162" s="1"/>
       <c r="BP162" s="1"/>
     </row>
-    <row r="163" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="1">
         <v>160</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E163" s="1">
         <v>2</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -21669,7 +21689,7 @@
       <c r="AM163" s="1"/>
       <c r="AN163" s="1"/>
       <c r="AO163" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP163" s="1"/>
       <c r="AQ163" s="1"/>
@@ -21699,22 +21719,22 @@
       <c r="BO163" s="1"/>
       <c r="BP163" s="1"/>
     </row>
-    <row r="164" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="1">
         <v>161</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E164" s="1">
         <v>2</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -21753,7 +21773,7 @@
       <c r="AM164" s="1"/>
       <c r="AN164" s="1"/>
       <c r="AO164" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP164" s="1"/>
       <c r="AQ164" s="1"/>
@@ -21783,16 +21803,16 @@
       <c r="BO164" s="1"/>
       <c r="BP164" s="1"/>
     </row>
-    <row r="165" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="1">
         <v>162</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E165" s="1">
         <v>2</v>
@@ -21837,7 +21857,7 @@
       <c r="AM165" s="1"/>
       <c r="AN165" s="1"/>
       <c r="AO165" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP165" s="1"/>
       <c r="AQ165" s="1">
@@ -21869,16 +21889,16 @@
       <c r="BO165" s="1"/>
       <c r="BP165" s="1"/>
     </row>
-    <row r="166" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="B166" s="1">
         <v>163</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E166" s="1">
         <v>2</v>
@@ -21935,7 +21955,7 @@
       <c r="AM166" s="1"/>
       <c r="AN166" s="1"/>
       <c r="AO166" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP166" s="1"/>
       <c r="AQ166" s="1"/>
@@ -21967,13 +21987,13 @@
       <c r="BO166" s="1"/>
       <c r="BP166" s="1"/>
     </row>
-    <row r="167" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="B167" s="1">
         <v>164</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>71</v>
@@ -22047,7 +22067,7 @@
       <c r="AM167" s="1"/>
       <c r="AN167" s="1"/>
       <c r="AO167" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AP167" s="1"/>
       <c r="AQ167" s="1"/>
@@ -22079,22 +22099,22 @@
       <c r="BO167" s="1"/>
       <c r="BP167" s="1"/>
     </row>
-    <row r="168" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="B168" s="1">
         <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E168" s="1">
         <v>2</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -22133,7 +22153,7 @@
       <c r="AM168" s="1"/>
       <c r="AN168" s="1"/>
       <c r="AO168" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AP168" s="1"/>
       <c r="AQ168" s="1"/>
@@ -22163,13 +22183,13 @@
       <c r="BO168" s="1"/>
       <c r="BP168" s="1"/>
     </row>
-    <row r="169" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="B169" s="1">
         <v>166</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>82</v>
@@ -22178,7 +22198,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -22260,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="AT169" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AU169" s="1"/>
       <c r="AV169" s="1"/>
@@ -22287,13 +22307,13 @@
       <c r="BO169" s="1"/>
       <c r="BP169" s="1"/>
     </row>
-    <row r="170" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="B170" s="1">
         <v>167</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>82</v>
@@ -22375,7 +22395,7 @@
       <c r="AM170" s="1"/>
       <c r="AN170" s="1"/>
       <c r="AO170" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AP170" s="1"/>
       <c r="AQ170" s="1"/>
@@ -22405,13 +22425,13 @@
       <c r="BO170" s="1"/>
       <c r="BP170" s="1"/>
     </row>
-    <row r="171" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
         <v>168</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>82</v>
@@ -22493,7 +22513,7 @@
       <c r="AM171" s="1"/>
       <c r="AN171" s="1"/>
       <c r="AO171" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AP171" s="1"/>
       <c r="AQ171" s="1"/>
@@ -22523,22 +22543,22 @@
       <c r="BO171" s="1"/>
       <c r="BP171" s="1"/>
     </row>
-    <row r="172" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
         <v>169</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E172" s="1">
         <v>2</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -22611,7 +22631,7 @@
       <c r="AM172" s="1"/>
       <c r="AN172" s="1"/>
       <c r="AO172" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AP172" s="1"/>
       <c r="AQ172" s="1"/>
@@ -22641,22 +22661,22 @@
       <c r="BO172" s="1"/>
       <c r="BP172" s="1"/>
     </row>
-    <row r="173" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="B173" s="1">
         <v>170</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E173" s="1">
         <v>2</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -22699,7 +22719,7 @@
       <c r="AM173" s="1"/>
       <c r="AN173" s="1"/>
       <c r="AO173" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AP173" s="1"/>
       <c r="AQ173" s="1"/>
@@ -22733,22 +22753,22 @@
       </c>
       <c r="BP173" s="1"/>
     </row>
-    <row r="174" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="B174" s="1">
         <v>171</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E174" s="1">
         <v>2</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -22791,7 +22811,7 @@
       <c r="AM174" s="1"/>
       <c r="AN174" s="1"/>
       <c r="AO174" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AP174" s="1"/>
       <c r="AQ174" s="1"/>
@@ -22825,22 +22845,22 @@
       </c>
       <c r="BP174" s="1"/>
     </row>
-    <row r="175" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="B175" s="1">
         <v>172</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E175" s="1">
         <v>2</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -22883,7 +22903,7 @@
       <c r="AM175" s="1"/>
       <c r="AN175" s="1"/>
       <c r="AO175" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AP175" s="1"/>
       <c r="AQ175" s="1"/>
@@ -22917,22 +22937,22 @@
       </c>
       <c r="BP175" s="1"/>
     </row>
-    <row r="176" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
       <c r="B176" s="1">
         <v>173</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E176" s="1">
         <v>2</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -22975,7 +22995,7 @@
       <c r="AM176" s="1"/>
       <c r="AN176" s="1"/>
       <c r="AO176" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AP176" s="1"/>
       <c r="AQ176" s="1"/>
@@ -23009,22 +23029,22 @@
       </c>
       <c r="BP176" s="1"/>
     </row>
-    <row r="177" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="B177" s="1">
         <v>174</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E177" s="1">
         <v>2</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -23063,7 +23083,7 @@
       <c r="AM177" s="1"/>
       <c r="AN177" s="1"/>
       <c r="AO177" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AP177" s="1"/>
       <c r="AQ177" s="1"/>
@@ -23097,22 +23117,22 @@
       </c>
       <c r="BP177" s="1"/>
     </row>
-    <row r="178" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
       <c r="B178" s="1">
         <v>175</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E178" s="1">
         <v>2</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -23151,7 +23171,7 @@
       <c r="AM178" s="1"/>
       <c r="AN178" s="1"/>
       <c r="AO178" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AP178" s="1"/>
       <c r="AQ178" s="1"/>
@@ -23185,22 +23205,22 @@
       </c>
       <c r="BP178" s="1"/>
     </row>
-    <row r="179" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
       <c r="B179" s="1">
         <v>176</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E179" s="1">
         <v>2</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -23239,7 +23259,7 @@
       <c r="AM179" s="1"/>
       <c r="AN179" s="1"/>
       <c r="AO179" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AP179" s="1"/>
       <c r="AQ179" s="1"/>
@@ -23273,22 +23293,22 @@
       </c>
       <c r="BP179" s="1"/>
     </row>
-    <row r="180" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
         <v>177</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E180" s="1">
         <v>2</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -23327,7 +23347,7 @@
       <c r="AM180" s="1"/>
       <c r="AN180" s="1"/>
       <c r="AO180" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AP180" s="1"/>
       <c r="AQ180" s="1"/>
@@ -23361,22 +23381,22 @@
       </c>
       <c r="BP180" s="1"/>
     </row>
-    <row r="181" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="1">
         <v>178</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E181" s="1">
         <v>2</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -23415,7 +23435,7 @@
       <c r="AM181" s="1"/>
       <c r="AN181" s="1"/>
       <c r="AO181" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AP181" s="1"/>
       <c r="AQ181" s="1"/>
@@ -23449,22 +23469,22 @@
       </c>
       <c r="BP181" s="1"/>
     </row>
-    <row r="182" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="B182" s="1">
         <v>179</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E182" s="1">
         <v>2</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -23503,7 +23523,7 @@
       <c r="AM182" s="1"/>
       <c r="AN182" s="1"/>
       <c r="AO182" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AP182" s="1"/>
       <c r="AQ182" s="1"/>
@@ -23537,22 +23557,22 @@
       </c>
       <c r="BP182" s="1"/>
     </row>
-    <row r="183" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
       <c r="B183" s="1">
         <v>180</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E183" s="1">
         <v>2</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -23591,7 +23611,7 @@
       <c r="AM183" s="1"/>
       <c r="AN183" s="1"/>
       <c r="AO183" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AP183" s="1"/>
       <c r="AQ183" s="1"/>
@@ -23625,22 +23645,22 @@
       </c>
       <c r="BP183" s="1"/>
     </row>
-    <row r="184" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
         <v>181</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E184" s="1">
         <v>2</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -23679,7 +23699,7 @@
       <c r="AM184" s="1"/>
       <c r="AN184" s="1"/>
       <c r="AO184" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AP184" s="1"/>
       <c r="AQ184" s="1"/>
@@ -23713,22 +23733,22 @@
       </c>
       <c r="BP184" s="1"/>
     </row>
-    <row r="185" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
         <v>182</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E185" s="1">
         <v>2</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -23767,7 +23787,7 @@
       <c r="AM185" s="1"/>
       <c r="AN185" s="1"/>
       <c r="AO185" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AP185" s="1"/>
       <c r="AQ185" s="1"/>
@@ -23801,22 +23821,22 @@
       </c>
       <c r="BP185" s="1"/>
     </row>
-    <row r="186" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
       <c r="B186" s="1">
         <v>183</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E186" s="1">
         <v>2</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -23855,7 +23875,7 @@
       <c r="AM186" s="1"/>
       <c r="AN186" s="1"/>
       <c r="AO186" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP186" s="1"/>
       <c r="AQ186" s="1"/>
@@ -23889,22 +23909,22 @@
       </c>
       <c r="BP186" s="1"/>
     </row>
-    <row r="187" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
       <c r="B187" s="1">
         <v>184</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E187" s="1">
         <v>2</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -23943,7 +23963,7 @@
       <c r="AM187" s="1"/>
       <c r="AN187" s="1"/>
       <c r="AO187" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP187" s="1"/>
       <c r="AQ187" s="1"/>
@@ -23977,22 +23997,22 @@
       </c>
       <c r="BP187" s="1"/>
     </row>
-    <row r="188" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
       <c r="B188" s="1">
         <v>185</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E188" s="1">
         <v>2</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -24031,7 +24051,7 @@
       <c r="AM188" s="1"/>
       <c r="AN188" s="1"/>
       <c r="AO188" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AP188" s="1"/>
       <c r="AQ188" s="1"/>
@@ -24065,13 +24085,13 @@
       </c>
       <c r="BP188" s="1"/>
     </row>
-    <row r="189" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
       <c r="B189" s="1">
         <v>186</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>82</v>
@@ -24080,7 +24100,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -24191,13 +24211,13 @@
       <c r="BO189" s="1"/>
       <c r="BP189" s="1"/>
     </row>
-    <row r="190" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
       <c r="B190" s="1">
         <v>187</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>82</v>
@@ -24206,7 +24226,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -24315,13 +24335,13 @@
       <c r="BO190" s="1"/>
       <c r="BP190" s="1"/>
     </row>
-    <row r="191" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
       <c r="B191" s="1">
         <v>188</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>82</v>
@@ -24330,7 +24350,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -24447,13 +24467,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
       <c r="B192" s="1">
         <v>189</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>82</v>
@@ -24462,7 +24482,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -24579,13 +24599,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="B193" s="1">
         <v>190</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>82</v>
@@ -24594,7 +24614,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -24712,7 +24732,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>